--- a/Diabetic.xlsx
+++ b/Diabetic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab Chanda\Desktop\Diabetes Nutrition &amp; Glycemic Control Project Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F4A87-6777-4986-98F8-B5384A5DBF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233DBE76-4AA1-4CF8-9AB6-92AAF2641AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5FB4EEE4-610A-4128-B3CF-7A34861763A9}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -697,7 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -745,10 +744,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -970,6 +969,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1021,6 +1021,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1079,6 +1080,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1140,6 +1142,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1198,6 +1201,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1274,6 +1278,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-58B3-4F07-B381-B27E94102FE3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -1427,6 +1450,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2963,6 +2987,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3071,6 +3096,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3113,7 +3139,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3128,6 +3154,7 @@
               <c:y val="-5.128205128205128E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3170,7 +3197,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3185,6 +3212,7 @@
               <c:y val="4.0032674587942643E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3369,6 +3397,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EE8F-46E7-B0AA-EFBACD287B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3399,6 +3446,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3614,6 +3662,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-EE8F-46E7-B0AA-EFBACD287B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3637,6 +3704,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4426,6 +4494,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4480,6 +4549,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4534,6 +4604,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4588,6 +4659,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4630,7 +4702,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4645,6 +4717,7 @@
               <c:y val="-8.3615095355774379E-3"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4702,6 +4775,7 @@
               <c:y val="-4.1807547677887018E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4744,7 +4818,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4759,6 +4833,7 @@
               <c:y val="-7.10728310524079E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4816,6 +4891,7 @@
               <c:y val="-9.1976604891351427E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4858,7 +4934,7 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4873,6 +4949,7 @@
               <c:y val="-2.090377383894354E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4915,7 +4992,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4930,6 +5007,7 @@
               <c:y val="-5.8530566749041842E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4987,6 +5065,7 @@
               <c:y val="-7.1072831052407942E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5029,7 +5108,7 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5044,6 +5123,7 @@
               <c:y val="-2.5084528606732277E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5101,6 +5181,7 @@
               <c:y val="-3.7626792910098301E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5143,7 +5224,7 @@
         <c:idx val="21"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5158,6 +5239,7 @@
               <c:y val="-4.1807547677886997E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5200,7 +5282,7 @@
         <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5215,6 +5297,7 @@
               <c:y val="-2.92652833745209E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5257,7 +5340,7 @@
         <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5272,6 +5355,7 @@
               <c:y val="-1.25422643033661E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5367,6 +5451,64 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.8660888493991059E-2"/>
+              <c:y val="-2.0799683975825198E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5398,6 +5540,82 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-5737-4D4E-B257-54660AF8A206}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-5737-4D4E-B257-54660AF8A206}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5737-4D4E-B257-54660AF8A206}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5737-4D4E-B257-54660AF8A206}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5487,6 +5705,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5612,6 +5831,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5630,6 +5906,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5649,6 +5928,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5668,8 +5950,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5795,6 +6081,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5813,6 +6156,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5832,6 +6178,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5851,8 +6200,34 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8660888493991059E-2"/>
+                  <c:y val="-2.0799683975825198E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5978,6 +6353,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6832-4E83-BB47-2E66B244A61F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5996,6 +6409,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6015,8 +6431,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6832-4E83-BB47-2E66B244A61F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6516,6 +6936,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="General" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6617,6 +7038,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6771,7 +7193,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9995,8 +10417,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Veg_NonVeg">
@@ -10019,7 +10441,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10073,8 +10495,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Meal">
@@ -10097,7 +10519,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10491,22 +10913,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74011</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4062C8B-D392-6AC5-1EAC-70E8A0C41247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ADF6BF-5063-2E99-2D67-110C628517EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10528,8 +10950,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="144781"/>
-          <a:ext cx="1866900" cy="615030"/>
+          <a:off x="243840" y="426720"/>
+          <a:ext cx="1371600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>459070</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D56A5C-E8BA-42A2-B2CB-A8B96398D0C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="4076060">
+          <a:off x="459070" y="5096314"/>
+          <a:ext cx="1146810" cy="1146810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15328,7 +15800,146 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{785C0A3D-2507-4528-A786-B7B9B9DCB291}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1BC2E60-95E5-4664-9027-E626EA6B7785}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="C2:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="18" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Glycemic Index" fld="11" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{785C0A3D-2507-4528-A786-B7B9B9DCB291}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="C29:D31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15424,8 +16035,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09FF5EFC-BC1C-427C-918D-BA18F0126650}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09FF5EFC-BC1C-427C-918D-BA18F0126650}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="C22:G27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15506,7 +16117,7 @@
   <dataFields count="1">
     <dataField name="Average of Glycemic Index" fld="11" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
-  <chartFormats count="17">
+  <chartFormats count="18">
     <chartFormat chart="2" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -15744,6 +16355,21 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15757,8 +16383,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35407205-A820-41CB-9CA3-305E286001D5}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35407205-A820-41CB-9CA3-305E286001D5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="C17:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15955,8 +16581,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C3F3E34-EE4F-44B5-ADEA-9536B7126A65}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C3F3E34-EE4F-44B5-ADEA-9536B7126A65}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="C10:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16153,145 +16779,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1BC2E60-95E5-4664-9027-E626EA6B7785}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="C2:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="18" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Glycemic Index" fld="11" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Veg_NonVeg" xr10:uid="{A30E0880-D48F-4121-A502-702EF4FCB26E}" sourceName="Veg_NonVeg">
   <pivotTables>
@@ -16342,14 +16829,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96576B22-BDAB-4611-8627-79E29A4F7A3F}" name="Table2" displayName="Table2" ref="A1:R225" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96576B22-BDAB-4611-8627-79E29A4F7A3F}" name="Table2" displayName="Table2" ref="A1:R225" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:R225" xr:uid="{96576B22-BDAB-4611-8627-79E29A4F7A3F}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{44F1CDAB-7153-44B6-88FE-51333FB649FB}" name="Day_No"/>
     <tableColumn id="2" xr3:uid="{0C1B0C8E-4536-42E7-8128-47F29A41C609}" name="Group_Status"/>
     <tableColumn id="3" xr3:uid="{E23AE6CD-CD27-47D8-8496-50AA57122AA7}" name="Veg_NonVeg"/>
     <tableColumn id="4" xr3:uid="{68433B72-DD4E-4BED-ACC2-8BD7D713ABF4}" name="Meal"/>
-    <tableColumn id="5" xr3:uid="{079A75D4-DC66-44A6-B0F4-EC4F81A6A8FC}" name="Time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{079A75D4-DC66-44A6-B0F4-EC4F81A6A8FC}" name="Time" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{F9BB7A36-9C53-4233-A397-09AC2A1F7E6D}" name="Dish"/>
     <tableColumn id="7" xr3:uid="{C9430139-06A5-4B83-9684-5337B15DB323}" name="Calories"/>
     <tableColumn id="8" xr3:uid="{E91E3F5B-3AC7-40F2-A55F-03B4CBEA074D}" name="Protein"/>
@@ -27143,7 +27630,7 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>52.089285714285715</v>
       </c>
     </row>
@@ -27151,7 +27638,7 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>50.857142857142854</v>
       </c>
     </row>
@@ -27159,7 +27646,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>53.803571428571431</v>
       </c>
     </row>
@@ -27167,7 +27654,7 @@
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>45.982142857142854</v>
       </c>
     </row>
@@ -27188,7 +27675,7 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>351.45</v>
       </c>
     </row>
@@ -27196,7 +27683,7 @@
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>331.65000000000015</v>
       </c>
     </row>
@@ -27204,7 +27691,7 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>445.5</v>
       </c>
     </row>
@@ -27212,7 +27699,7 @@
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>257.40000000000009</v>
       </c>
     </row>
@@ -27236,16 +27723,16 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="5">
+      <c r="C18">
         <v>22.150000000000009</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>27.594642857142837</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>11.999999999999998</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>5.9410714285714263</v>
       </c>
     </row>
@@ -27283,16 +27770,16 @@
       <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>49.571428571428569</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>48.285714285714285</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>51.214285714285715</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>43.5</v>
       </c>
     </row>
@@ -27300,16 +27787,16 @@
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>45.857142857142854</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>43.071428571428569</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>46.357142857142854</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>39.714285714285715</v>
       </c>
     </row>
@@ -27317,16 +27804,16 @@
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>53.785714285714285</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26">
         <v>53.571428571428569</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>57.142857142857146</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
         <v>50</v>
       </c>
     </row>
@@ -27334,16 +27821,16 @@
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>59.142857142857146</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27">
         <v>58.5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>60.5</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>50.714285714285715</v>
       </c>
     </row>
@@ -27364,7 +27851,7 @@
       <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>40471.199999999997</v>
       </c>
     </row>
@@ -27372,7 +27859,7 @@
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>37144.80000000001</v>
       </c>
     </row>
@@ -27385,8 +27872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868440F7-8371-41CE-8F63-2CDCC12F58E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
